--- a/czesci.xlsx
+++ b/czesci.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\AppData\Local\Temp\MicrosoftEdgeDownloads\f3005ba4-b921-4754-b533-2b51bf76f4d0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF777CC-A8BF-4675-A838-09783838D084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDC356-63EC-479E-A56C-872C2737656D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D29DCE23-3F9D-4F49-A587-FD12F64CCDFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{D29DCE23-3F9D-4F49-A587-FD12F64CCDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Podwozie</t>
   </si>
@@ -87,9 +87,6 @@
     <t>https://botland.com.pl/kola-z-oponami/14244-kolo-z-opona-65x26mm-niebieskie-5904422377595.html</t>
   </si>
   <si>
-    <t>Antena</t>
-  </si>
-  <si>
     <t>Listwa zębata</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Mocowanie anteny</t>
   </si>
   <si>
-    <t>Koszyk na baterie</t>
-  </si>
-  <si>
     <t>https://botland.com.pl/akumulatory-li-ion/23832-ogniwo-18650-li-ion-samsung-inr18650-25r-2500mah-20a.html</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Druk 3D w przypadku Raspberry / do arduino mamy</t>
   </si>
   <si>
-    <t>Potrzebna w przypadku Raspberry Pi</t>
-  </si>
-  <si>
     <t>Raspberry Pi 4</t>
   </si>
   <si>
@@ -154,6 +145,21 @@
   </si>
   <si>
     <t>Do uzgodnienia (szybki :))</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/koszyki-na-baterie/5240-koszyk-na-2-akumulatory-typu-18650-polaczenie-szeregowe-5904422374341.html</t>
+  </si>
+  <si>
+    <t>Koszyk na baterie 18650 - połączenie szeregowe</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/anteny-wifi/10150-antena-wifi-ufl-25cm-5904422338893.html</t>
+  </si>
+  <si>
+    <t>Antena U.FL - 25cm</t>
+  </si>
+  <si>
+    <t>Suma</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -552,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3E17B-1CB2-4765-8A20-A30B94E2D0F3}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
@@ -609,8 +616,9 @@
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>4.4000000000000004</v>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
@@ -625,31 +633,31 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -724,7 +732,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -736,7 +744,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -778,6 +786,9 @@
       <c r="C16" s="6">
         <v>0</v>
       </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -790,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -826,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -840,12 +851,12 @@
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -854,7 +865,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -881,16 +892,21 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -899,12 +915,12 @@
         <v>21.9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -913,15 +929,15 @@
         <v>27.9</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>40</v>
@@ -930,12 +946,12 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
         <v>40</v>
@@ -944,18 +960,21 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -982,36 +1001,50 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(C32,C25,C24,C23,C21)</f>
+        <v>81.39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1020,12 +1053,14 @@
     <mergeCell ref="A7:R7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{02CC8AA9-9BC8-4D5F-AA7B-3299D6FC548A}"/>
-    <hyperlink ref="E24" r:id="rId2" xr:uid="{78243339-DC5E-43CB-8FCD-2A2D74F57AF4}"/>
-    <hyperlink ref="E21" r:id="rId3" xr:uid="{7046B568-CB8E-4AB2-A674-7C71716D6995}"/>
-    <hyperlink ref="E25" r:id="rId4" xr:uid="{03709236-C6D9-4071-B222-4E4180A70340}"/>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{78243339-DC5E-43CB-8FCD-2A2D74F57AF4}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{7046B568-CB8E-4AB2-A674-7C71716D6995}"/>
+    <hyperlink ref="E25" r:id="rId3" xr:uid="{03709236-C6D9-4071-B222-4E4180A70340}"/>
+    <hyperlink ref="E32" r:id="rId4" xr:uid="{8563DD43-49C8-4D0F-A85B-CCD10BC2A99C}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{7067F14F-149E-4ECA-ACA3-E2629299A769}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{02CC8AA9-9BC8-4D5F-AA7B-3299D6FC548A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/czesci.xlsx
+++ b/czesci.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\AppData\Local\Temp\MicrosoftEdgeDownloads\f3005ba4-b921-4754-b533-2b51bf76f4d0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDC356-63EC-479E-A56C-872C2737656D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F1D52-29E8-4210-82A3-FDF541DD834B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{D29DCE23-3F9D-4F49-A587-FD12F64CCDFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Podwozie</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Lidar</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Dalmierz ultradźwiękowy HC-SR04</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Do wyboru jedna z dwóch</t>
   </si>
   <si>
-    <t>Silnik elektryczny prądu stałego</t>
-  </si>
-  <si>
     <t>Koło</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>to mamy</t>
   </si>
   <si>
-    <t>Do uzgodnienia (szybki :))</t>
-  </si>
-  <si>
     <t>https://botland.com.pl/koszyki-na-baterie/5240-koszyk-na-2-akumulatory-typu-18650-polaczenie-szeregowe-5904422374341.html</t>
   </si>
   <si>
@@ -160,6 +151,12 @@
   </si>
   <si>
     <t>Suma</t>
+  </si>
+  <si>
+    <t>Silnik elektryczny FIT0441</t>
+  </si>
+  <si>
+    <t>https://www.digikey.pl/en/products/detail/dfrobot/FIT0441/6588579?msockid=36d28a9a95016a1716e59e1394136b5c</t>
   </si>
 </sst>
 </file>
@@ -208,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,12 +213,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,7 +268,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -561,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3E17B-1CB2-4765-8A20-A30B94E2D0F3}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,17 +637,17 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -633,31 +659,31 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -727,12 +753,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -744,14 +770,14 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -787,12 +813,12 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -801,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -837,26 +863,27 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
+      <c r="C20" s="1">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -865,12 +892,12 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -892,7 +919,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -901,12 +928,12 @@
         <v>7.7</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -915,12 +942,12 @@
         <v>21.9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -929,15 +956,15 @@
         <v>27.9</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>40</v>
@@ -946,12 +973,12 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>40</v>
@@ -960,12 +987,12 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -974,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -1001,31 +1028,31 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1034,16 +1061,17 @@
         <v>3.99</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C34" s="9">
-        <f>SUM(C32,C25,C24,C23,C21)</f>
-        <v>81.39</v>
+        <f>SUM(C20*B20,C23,C24*B24,C25,C32)</f>
+        <v>243.39000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1059,8 +1087,9 @@
     <hyperlink ref="E32" r:id="rId4" xr:uid="{8563DD43-49C8-4D0F-A85B-CCD10BC2A99C}"/>
     <hyperlink ref="E23" r:id="rId5" xr:uid="{7067F14F-149E-4ECA-ACA3-E2629299A769}"/>
     <hyperlink ref="E3" r:id="rId6" xr:uid="{02CC8AA9-9BC8-4D5F-AA7B-3299D6FC548A}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{0515ACFC-409A-4E94-BCD5-CD61C2F10FB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>